--- a/Selenium/Bugs/data/style/달달한.xlsx
+++ b/Selenium/Bugs/data/style/달달한.xlsx
@@ -52,7 +52,7 @@
     <t>Bright Blue Skies</t>
   </si>
   <si>
-    <t>Losing My Mind</t>
+    <t xml:space="preserve">Losing My Mind </t>
   </si>
   <si>
     <t>Constant</t>
@@ -61,7 +61,7 @@
     <t>Falling In Love</t>
   </si>
   <si>
-    <t>In Your Wonderland</t>
+    <t xml:space="preserve">In Your Wonderland </t>
   </si>
   <si>
     <t>Maybe Another Time</t>
@@ -487,7 +487,7 @@
     <t>Syndrome</t>
   </si>
   <si>
-    <t>Daydream</t>
+    <t xml:space="preserve">Daydream </t>
   </si>
   <si>
     <t>Spring Wind</t>
@@ -502,7 +502,7 @@
     <t>Caffe? Mocha</t>
   </si>
   <si>
-    <t>Lune</t>
+    <t xml:space="preserve">Lune </t>
   </si>
   <si>
     <t>Mint Jam</t>
@@ -517,10 +517,10 @@
     <t>Better days</t>
   </si>
   <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>It's Raining Again</t>
+    <t xml:space="preserve">Café </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's Raining Again </t>
   </si>
   <si>
     <t>Vìo</t>
@@ -556,7 +556,7 @@
     <t>Just The Way You Are</t>
   </si>
   <si>
-    <t>I Like Me Better</t>
+    <t xml:space="preserve">I Like Me Better </t>
   </si>
   <si>
     <t>One Call Away</t>
